--- a/data/bruker_example_input_9_pt_dr_simple.xlsx
+++ b/data/bruker_example_input_9_pt_dr_simple.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apaulson/OrbStack/ubuntu/home/apaulson/repos/Notebooks/SMDC/SMDC_2_pre_screen_analysis/Chad_SPR_plate_formatting/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apaulson/OrbStack/ubuntu/home/apaulson/repos/smdc_preprocess_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E658F3-0A1B-3048-9F8F-3E5CCB36F582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110098A7-C929-7F43-BFEC-DE916198F40E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{319C735B-FEA9-4FD1-82F8-9196C7FC0DFC}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="64">
   <si>
     <t>Sample Name</t>
   </si>
@@ -133,9 +133,6 @@
   </si>
   <si>
     <t>PP</t>
-  </si>
-  <si>
-    <t>LDV</t>
   </si>
   <si>
     <t>SMILES (optional)</t>
@@ -236,13 +233,35 @@
   <si>
     <t>&lt;- your name for file organization</t>
   </si>
+  <si>
+    <t>Middle Concentration (uM)</t>
+  </si>
+  <si>
+    <t>ExampleComp</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>ExampleComp2</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000000000"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -448,7 +467,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -463,15 +482,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -484,21 +497,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -553,11 +551,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -896,10 +931,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A90E0F-EB22-48B1-9A5A-36849773D290}">
-  <dimension ref="A1:S75"/>
+  <dimension ref="A1:T75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -922,146 +957,149 @@
     <col min="16" max="16" width="23.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="23.5" style="3" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="26.1640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.1640625" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E1"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" t="s">
-        <v>57</v>
-      </c>
       <c r="E4"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="35" t="s">
-        <v>36</v>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" s="28" t="s">
+        <v>35</v>
       </c>
       <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
         <v>47</v>
       </c>
-      <c r="E5"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="8">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="E7"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
         <v>48</v>
       </c>
-      <c r="E7"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>49</v>
-      </c>
       <c r="E8"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D9" s="4"/>
       <c r="E9"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="37" t="s">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
       <c r="P10"/>
       <c r="Q10"/>
       <c r="R10"/>
       <c r="S10"/>
     </row>
-    <row r="11" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="8" t="s">
+      <c r="G11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="I11" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="L11" s="8" t="s">
+      <c r="L11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="M11" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="N11" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="O11" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q11" s="12"/>
-      <c r="S11" s="13"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="M11" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N11" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="O11" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="P11" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="R11" s="10"/>
+      <c r="T11" s="11"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1075,18 +1113,26 @@
         <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N12" s="23" t="str">
+        <v>34</v>
+      </c>
+      <c r="N12" s="16" t="str">
         <f t="shared" ref="N12" si="0">IFERROR(L12/M12^8,"")</f>
         <v/>
       </c>
-      <c r="O12" s="10" t="str">
+      <c r="O12" s="32" t="str">
+        <f>IFERROR(L12/M12^4,"")</f>
+        <v/>
+      </c>
+      <c r="P12" s="8" t="str">
         <f>IF(2.5*(H12/400)/100/1000=0,"",2.5*(H12/400)/100/1000)</f>
         <v/>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q12" s="1"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="9"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1100,7 +1146,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="F13" s="1">
         <v>111</v>
@@ -1112,10 +1158,10 @@
         <v>31</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="L13" s="1">
         <v>100</v>
@@ -1123,16 +1169,24 @@
       <c r="M13" s="1">
         <v>3</v>
       </c>
-      <c r="N13" s="23">
+      <c r="N13" s="16">
         <f>IFERROR(L13/M13^8,"")</f>
         <v>1.5241579027587259E-2</v>
       </c>
-      <c r="O13" s="10">
+      <c r="O13" s="32">
+        <f t="shared" ref="O13:O75" si="1">IFERROR(L13/M13^4,"")</f>
+        <v>1.2345679012345678</v>
+      </c>
+      <c r="P13" s="8">
         <f>IF(2.5*(H13/400)/100/1000=0,"",2.5*(H13/400)/100/1000)</f>
         <v>6.2500000000000001E-4</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q13" s="1"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="9"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1145,40 +1199,24 @@
       <c r="D14">
         <v>3</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="1">
-        <v>222</v>
-      </c>
-      <c r="H14" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L14" s="1">
-        <v>100</v>
-      </c>
-      <c r="M14" s="1">
-        <v>4</v>
-      </c>
-      <c r="N14" s="23">
+      <c r="N14" s="16" t="str">
         <f>IFERROR(L14/M14^8,"")</f>
-        <v>1.52587890625E-3</v>
-      </c>
-      <c r="O14" s="10">
+        <v/>
+      </c>
+      <c r="O14" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P14" s="8" t="str">
         <f>IF(2.5*(H14/400)/100/1000=0,"",2.5*(H14/400)/100/1000)</f>
-        <v>6.2500000000000001E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="9"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1191,40 +1229,24 @@
       <c r="D15">
         <v>4</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="1">
-        <v>333</v>
-      </c>
-      <c r="H15" s="1">
-        <v>5000</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L15" s="1">
-        <v>10</v>
-      </c>
-      <c r="M15" s="1">
-        <v>2</v>
-      </c>
-      <c r="N15" s="23">
-        <f t="shared" ref="N15:N75" si="1">IFERROR(L15/M15^8,"")</f>
-        <v>3.90625E-2</v>
-      </c>
-      <c r="O15" s="10">
+      <c r="N15" s="16" t="str">
+        <f t="shared" ref="N15:N75" si="2">IFERROR(L15/M15^8,"")</f>
+        <v/>
+      </c>
+      <c r="O15" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P15" s="8" t="str">
         <f>IF(2.5*(H15/400)/100/1000=0,"",2.5*(H15/400)/100/1000)</f>
-        <v>3.1250000000000001E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="9"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1238,18 +1260,26 @@
         <v>5</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N16" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="O16" s="10" t="str">
-        <f t="shared" ref="O16:O75" si="2">IF(2.5*(H16/400)/100/1000=0,"",2.5*(H16/400)/100/1000)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="N16" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O16" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P16" s="8" t="str">
+        <f t="shared" ref="P16:P75" si="3">IF(2.5*(H16/400)/100/1000=0,"",2.5*(H16/400)/100/1000)</f>
+        <v/>
+      </c>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="9"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1262,16 +1292,48 @@
       <c r="D17">
         <v>6</v>
       </c>
-      <c r="N17" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="O17" s="10" t="str">
+      <c r="E17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="1">
+        <v>222</v>
+      </c>
+      <c r="H17" s="1">
+        <v>5000</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L17" s="1">
+        <v>50</v>
+      </c>
+      <c r="M17" s="1">
+        <v>4</v>
+      </c>
+      <c r="N17" s="16">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+        <v>7.62939453125E-4</v>
+      </c>
+      <c r="O17" s="32">
+        <f t="shared" si="1"/>
+        <v>0.1953125</v>
+      </c>
+      <c r="P17" s="8">
+        <f t="shared" si="3"/>
+        <v>3.1250000000000001E-4</v>
+      </c>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="9"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1284,16 +1346,24 @@
       <c r="D18">
         <v>7</v>
       </c>
-      <c r="N18" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="O18" s="10" t="str">
+      <c r="N18" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O18" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P18" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="9"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1306,16 +1376,24 @@
       <c r="D19">
         <v>8</v>
       </c>
-      <c r="N19" s="23" t="str">
+      <c r="N19" s="16" t="str">
         <f>IFERROR(L19/M19^8,"")</f>
         <v/>
       </c>
-      <c r="O19" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O19" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P19" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="9"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1329,18 +1407,26 @@
         <v>9</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N20" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="O20" s="10" t="str">
+        <v>34</v>
+      </c>
+      <c r="N20" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O20" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P20" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="9"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1353,16 +1439,24 @@
       <c r="D21">
         <v>10</v>
       </c>
-      <c r="N21" s="23" t="str">
-        <f t="shared" ref="N21:N55" si="3">IFERROR(J21/M21^8,"")</f>
-        <v/>
-      </c>
-      <c r="O21" s="10" t="str">
-        <f t="shared" ref="O21:O55" si="4">IF(2.5*(F21/400)/100/1000=0,"",2.5*(F21/400)/100/1000)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N21" s="16" t="str">
+        <f t="shared" ref="N21:N55" si="4">IFERROR(J21/M21^8,"")</f>
+        <v/>
+      </c>
+      <c r="O21" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P21" s="8" t="str">
+        <f t="shared" ref="P21:P55" si="5">IF(2.5*(F21/400)/100/1000=0,"",2.5*(F21/400)/100/1000)</f>
+        <v/>
+      </c>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="9"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1375,21 +1469,24 @@
       <c r="D22">
         <v>11</v>
       </c>
-      <c r="F22" s="14"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="6"/>
-      <c r="N22" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O22" s="10" t="str">
+      <c r="N22" s="16" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P22" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="9"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1</v>
       </c>
@@ -1402,18 +1499,24 @@
       <c r="D23">
         <v>12</v>
       </c>
-      <c r="F23" s="15"/>
-      <c r="J23" s="16"/>
-      <c r="N23" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O23" s="10" t="str">
+      <c r="N23" s="16" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O23" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P23" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="9"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1427,20 +1530,26 @@
         <v>13</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F24" s="15"/>
-      <c r="J24" s="16"/>
-      <c r="N24" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O24" s="10" t="str">
+        <v>34</v>
+      </c>
+      <c r="N24" s="16" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O24" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P24" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="9"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1</v>
       </c>
@@ -1453,18 +1562,24 @@
       <c r="D25">
         <v>14</v>
       </c>
-      <c r="F25" s="15"/>
-      <c r="J25" s="16"/>
-      <c r="N25" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O25" s="10" t="str">
+      <c r="N25" s="16" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P25" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="9"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1477,18 +1592,24 @@
       <c r="D26">
         <v>15</v>
       </c>
-      <c r="F26" s="15"/>
-      <c r="J26" s="16"/>
-      <c r="N26" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O26" s="10" t="str">
+      <c r="N26" s="16" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O26" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P26" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="9"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1</v>
       </c>
@@ -1501,18 +1622,24 @@
       <c r="D27">
         <v>16</v>
       </c>
-      <c r="F27" s="15"/>
-      <c r="J27" s="16"/>
-      <c r="N27" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O27" s="10" t="str">
+      <c r="N27" s="16" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O27" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P27" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="9"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1526,20 +1653,26 @@
         <v>17</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F28" s="15"/>
-      <c r="J28" s="16"/>
-      <c r="N28" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O28" s="10" t="str">
+        <v>34</v>
+      </c>
+      <c r="N28" s="16" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P28" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="9"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1</v>
       </c>
@@ -1552,18 +1685,24 @@
       <c r="D29">
         <v>18</v>
       </c>
-      <c r="F29" s="15"/>
-      <c r="J29" s="16"/>
-      <c r="N29" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O29" s="10" t="str">
+      <c r="N29" s="16" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P29" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="9"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1</v>
       </c>
@@ -1576,18 +1715,24 @@
       <c r="D30">
         <v>19</v>
       </c>
-      <c r="F30" s="15"/>
-      <c r="J30" s="16"/>
-      <c r="N30" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O30" s="10" t="str">
+      <c r="N30" s="16" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P30" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="9"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1</v>
       </c>
@@ -1600,18 +1745,24 @@
       <c r="D31">
         <v>20</v>
       </c>
-      <c r="F31" s="15"/>
-      <c r="J31" s="16"/>
-      <c r="N31" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O31" s="10" t="str">
+      <c r="N31" s="16" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P31" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="9"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1</v>
       </c>
@@ -1625,20 +1776,26 @@
         <v>21</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F32" s="15"/>
-      <c r="J32" s="16"/>
-      <c r="N32" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O32" s="10" t="str">
+        <v>34</v>
+      </c>
+      <c r="N32" s="16" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O32" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P32" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="9"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1</v>
       </c>
@@ -1651,18 +1808,24 @@
       <c r="D33">
         <v>22</v>
       </c>
-      <c r="F33" s="15"/>
-      <c r="J33" s="16"/>
-      <c r="N33" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O33" s="10" t="str">
+      <c r="N33" s="16" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O33" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P33" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="9"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1</v>
       </c>
@@ -1675,18 +1838,24 @@
       <c r="D34">
         <v>23</v>
       </c>
-      <c r="F34" s="15"/>
-      <c r="J34" s="16"/>
-      <c r="N34" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O34" s="10" t="str">
+      <c r="N34" s="16" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P34" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="9"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1</v>
       </c>
@@ -1699,18 +1868,24 @@
       <c r="D35">
         <v>24</v>
       </c>
-      <c r="F35" s="15"/>
-      <c r="J35" s="16"/>
-      <c r="N35" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O35" s="10" t="str">
+      <c r="N35" s="16" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O35" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P35" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="9"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1</v>
       </c>
@@ -1724,20 +1899,26 @@
         <v>25</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F36" s="15"/>
-      <c r="J36" s="16"/>
-      <c r="N36" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O36" s="10" t="str">
+        <v>34</v>
+      </c>
+      <c r="N36" s="16" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O36" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P36" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="9"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1</v>
       </c>
@@ -1750,18 +1931,24 @@
       <c r="D37">
         <v>26</v>
       </c>
-      <c r="F37" s="15"/>
-      <c r="J37" s="16"/>
-      <c r="N37" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O37" s="10" t="str">
+      <c r="N37" s="16" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O37" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P37" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="9"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1</v>
       </c>
@@ -1774,18 +1961,24 @@
       <c r="D38">
         <v>27</v>
       </c>
-      <c r="F38" s="15"/>
-      <c r="J38" s="16"/>
-      <c r="N38" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O38" s="10" t="str">
+      <c r="N38" s="16" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O38" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P38" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="9"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1</v>
       </c>
@@ -1798,18 +1991,24 @@
       <c r="D39">
         <v>28</v>
       </c>
-      <c r="F39" s="15"/>
-      <c r="J39" s="16"/>
-      <c r="N39" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O39" s="10" t="str">
+      <c r="N39" s="16" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O39" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P39" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="9"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1</v>
       </c>
@@ -1823,20 +2022,26 @@
         <v>29</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F40" s="15"/>
-      <c r="J40" s="16"/>
-      <c r="N40" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O40" s="10" t="str">
+        <v>34</v>
+      </c>
+      <c r="N40" s="16" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O40" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P40" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="9"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1</v>
       </c>
@@ -1849,18 +2054,30 @@
       <c r="D41">
         <v>30</v>
       </c>
-      <c r="F41" s="15"/>
-      <c r="J41" s="16"/>
-      <c r="N41" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O41" s="10" t="str">
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="N41" s="16" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O41" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P41" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="9"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1</v>
       </c>
@@ -1873,18 +2090,30 @@
       <c r="D42">
         <v>31</v>
       </c>
-      <c r="F42" s="15"/>
-      <c r="J42" s="16"/>
-      <c r="N42" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O42" s="10" t="str">
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42"/>
+      <c r="N42" s="16" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O42" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P42" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="9"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>1</v>
       </c>
@@ -1897,25 +2126,33 @@
       <c r="D43" s="2">
         <v>32</v>
       </c>
-      <c r="E43" s="5"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="18"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
-      <c r="N43" s="24" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O43" s="19" t="str">
+      <c r="N43" s="17" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O43" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P43" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="9"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2</v>
       </c>
@@ -1928,21 +2165,32 @@
       <c r="D44">
         <v>25</v>
       </c>
-      <c r="F44" s="15"/>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
       <c r="I44"/>
-      <c r="J44" s="16"/>
+      <c r="J44"/>
       <c r="K44"/>
       <c r="L44"/>
-      <c r="N44" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O44" s="10" t="str">
+      <c r="N44" s="16" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O44" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P44" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="9"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2</v>
       </c>
@@ -1955,19 +2203,30 @@
       <c r="D45">
         <v>26</v>
       </c>
-      <c r="F45" s="15"/>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="H45"/>
       <c r="I45"/>
-      <c r="J45" s="16"/>
-      <c r="N45" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O45" s="10" t="str">
+      <c r="J45"/>
+      <c r="N45" s="16" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O45" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P45" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="3"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="9"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2</v>
       </c>
@@ -1980,18 +2239,30 @@
       <c r="D46">
         <v>27</v>
       </c>
-      <c r="F46" s="15"/>
-      <c r="J46" s="16"/>
-      <c r="N46" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O46" s="10" t="str">
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="N46" s="16" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O46" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P46" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="3"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="9"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2</v>
       </c>
@@ -2004,18 +2275,30 @@
       <c r="D47">
         <v>28</v>
       </c>
-      <c r="F47" s="15"/>
-      <c r="J47" s="16"/>
-      <c r="N47" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O47" s="10" t="str">
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47"/>
+      <c r="J47"/>
+      <c r="N47" s="16" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O47" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P47" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="3"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="9"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2</v>
       </c>
@@ -2028,18 +2311,30 @@
       <c r="D48">
         <v>29</v>
       </c>
-      <c r="F48" s="15"/>
-      <c r="J48" s="16"/>
-      <c r="N48" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O48" s="10" t="str">
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48"/>
+      <c r="J48"/>
+      <c r="N48" s="16" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O48" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P48" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="3"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="9"/>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2</v>
       </c>
@@ -2052,18 +2347,30 @@
       <c r="D49">
         <v>30</v>
       </c>
-      <c r="F49" s="15"/>
-      <c r="J49" s="16"/>
-      <c r="N49" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O49" s="10" t="str">
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="N49" s="16" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O49" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P49" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="3"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="9"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2</v>
       </c>
@@ -2076,18 +2383,30 @@
       <c r="D50">
         <v>31</v>
       </c>
-      <c r="F50" s="15"/>
-      <c r="J50" s="16"/>
-      <c r="N50" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O50" s="10" t="str">
+      <c r="E50"/>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="I50"/>
+      <c r="J50"/>
+      <c r="N50" s="16" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P50" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="3"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="9"/>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2</v>
       </c>
@@ -2100,18 +2419,30 @@
       <c r="D51">
         <v>32</v>
       </c>
-      <c r="F51" s="15"/>
-      <c r="J51" s="16"/>
-      <c r="N51" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O51" s="10" t="str">
+      <c r="E51"/>
+      <c r="F51"/>
+      <c r="G51"/>
+      <c r="H51"/>
+      <c r="I51"/>
+      <c r="J51"/>
+      <c r="N51" s="16" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P51" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="3"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="9"/>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2</v>
       </c>
@@ -2124,18 +2455,30 @@
       <c r="D52">
         <v>33</v>
       </c>
-      <c r="F52" s="15"/>
-      <c r="J52" s="16"/>
-      <c r="N52" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O52" s="10" t="str">
+      <c r="E52"/>
+      <c r="F52"/>
+      <c r="G52"/>
+      <c r="H52"/>
+      <c r="I52"/>
+      <c r="J52"/>
+      <c r="N52" s="16" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O52" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P52" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="3"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="9"/>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2</v>
       </c>
@@ -2148,18 +2491,30 @@
       <c r="D53">
         <v>34</v>
       </c>
-      <c r="F53" s="15"/>
-      <c r="J53" s="16"/>
-      <c r="N53" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O53" s="10" t="str">
+      <c r="E53"/>
+      <c r="F53"/>
+      <c r="G53"/>
+      <c r="H53"/>
+      <c r="I53"/>
+      <c r="J53"/>
+      <c r="N53" s="16" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P53" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="3"/>
+      <c r="S53" s="1"/>
+      <c r="T53" s="9"/>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2</v>
       </c>
@@ -2172,18 +2527,30 @@
       <c r="D54">
         <v>35</v>
       </c>
-      <c r="F54" s="15"/>
-      <c r="J54" s="16"/>
-      <c r="N54" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O54" s="10" t="str">
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54"/>
+      <c r="H54"/>
+      <c r="I54"/>
+      <c r="J54"/>
+      <c r="N54" s="16" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O54" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P54" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="3"/>
+      <c r="S54" s="1"/>
+      <c r="T54" s="9"/>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2</v>
       </c>
@@ -2196,21 +2563,30 @@
       <c r="D55">
         <v>36</v>
       </c>
-      <c r="F55" s="17"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="18"/>
-      <c r="N55" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O55" s="10" t="str">
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55"/>
+      <c r="J55"/>
+      <c r="N55" s="16" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O55" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P55" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="3"/>
+      <c r="S55" s="1"/>
+      <c r="T55" s="9"/>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2</v>
       </c>
@@ -2223,16 +2599,24 @@
       <c r="D56">
         <v>37</v>
       </c>
-      <c r="N56" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="O56" s="10" t="str">
+      <c r="N56" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O56" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P56" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="3"/>
+      <c r="S56" s="1"/>
+      <c r="T56" s="9"/>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2</v>
       </c>
@@ -2245,16 +2629,24 @@
       <c r="D57">
         <v>38</v>
       </c>
-      <c r="N57" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="O57" s="10" t="str">
+      <c r="N57" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O57" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P57" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="3"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="9"/>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2</v>
       </c>
@@ -2267,16 +2659,24 @@
       <c r="D58">
         <v>39</v>
       </c>
-      <c r="N58" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="O58" s="10" t="str">
+      <c r="N58" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O58" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P58" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="3"/>
+      <c r="S58" s="1"/>
+      <c r="T58" s="9"/>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2</v>
       </c>
@@ -2289,16 +2689,24 @@
       <c r="D59">
         <v>40</v>
       </c>
-      <c r="N59" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="O59" s="10" t="str">
+      <c r="N59" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O59" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P59" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="3"/>
+      <c r="S59" s="1"/>
+      <c r="T59" s="9"/>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2</v>
       </c>
@@ -2311,16 +2719,24 @@
       <c r="D60">
         <v>41</v>
       </c>
-      <c r="N60" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="O60" s="10" t="str">
+      <c r="N60" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O60" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P60" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="3"/>
+      <c r="S60" s="1"/>
+      <c r="T60" s="9"/>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>2</v>
       </c>
@@ -2333,16 +2749,24 @@
       <c r="D61">
         <v>42</v>
       </c>
-      <c r="N61" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="O61" s="10" t="str">
+      <c r="N61" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O61" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P61" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="3"/>
+      <c r="S61" s="1"/>
+      <c r="T61" s="9"/>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2</v>
       </c>
@@ -2355,16 +2779,24 @@
       <c r="D62">
         <v>43</v>
       </c>
-      <c r="N62" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="O62" s="10" t="str">
+      <c r="N62" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O62" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P62" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="3"/>
+      <c r="S62" s="1"/>
+      <c r="T62" s="9"/>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>2</v>
       </c>
@@ -2377,16 +2809,24 @@
       <c r="D63">
         <v>44</v>
       </c>
-      <c r="N63" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="O63" s="10" t="str">
+      <c r="N63" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P63" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="3"/>
+      <c r="S63" s="1"/>
+      <c r="T63" s="9"/>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>2</v>
       </c>
@@ -2399,16 +2839,24 @@
       <c r="D64">
         <v>45</v>
       </c>
-      <c r="N64" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="O64" s="10" t="str">
+      <c r="N64" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P64" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="3"/>
+      <c r="S64" s="1"/>
+      <c r="T64" s="9"/>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>2</v>
       </c>
@@ -2421,16 +2869,24 @@
       <c r="D65">
         <v>46</v>
       </c>
-      <c r="N65" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="O65" s="10" t="str">
+      <c r="N65" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P65" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="3"/>
+      <c r="S65" s="1"/>
+      <c r="T65" s="9"/>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>2</v>
       </c>
@@ -2443,16 +2899,24 @@
       <c r="D66">
         <v>47</v>
       </c>
-      <c r="N66" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="O66" s="10" t="str">
+      <c r="N66" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O66" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P66" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="3"/>
+      <c r="S66" s="1"/>
+      <c r="T66" s="9"/>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>2</v>
       </c>
@@ -2465,16 +2929,24 @@
       <c r="D67">
         <v>48</v>
       </c>
-      <c r="N67" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="O67" s="10" t="str">
+      <c r="N67" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O67" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P67" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="3"/>
+      <c r="S67" s="1"/>
+      <c r="T67" s="9"/>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>2</v>
       </c>
@@ -2487,16 +2959,24 @@
       <c r="D68">
         <v>49</v>
       </c>
-      <c r="N68" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="O68" s="10" t="str">
+      <c r="N68" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P68" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="3"/>
+      <c r="S68" s="1"/>
+      <c r="T68" s="9"/>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>2</v>
       </c>
@@ -2509,16 +2989,24 @@
       <c r="D69">
         <v>50</v>
       </c>
-      <c r="N69" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="O69" s="10" t="str">
+      <c r="N69" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P69" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="3"/>
+      <c r="S69" s="1"/>
+      <c r="T69" s="9"/>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>2</v>
       </c>
@@ -2531,16 +3019,24 @@
       <c r="D70">
         <v>51</v>
       </c>
-      <c r="N70" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="O70" s="10" t="str">
+      <c r="N70" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P70" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="3"/>
+      <c r="S70" s="1"/>
+      <c r="T70" s="9"/>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>2</v>
       </c>
@@ -2553,16 +3049,24 @@
       <c r="D71">
         <v>52</v>
       </c>
-      <c r="N71" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="O71" s="10" t="str">
+      <c r="N71" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P71" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="3"/>
+      <c r="S71" s="1"/>
+      <c r="T71" s="9"/>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>2</v>
       </c>
@@ -2575,16 +3079,24 @@
       <c r="D72">
         <v>53</v>
       </c>
-      <c r="N72" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="O72" s="10" t="str">
+      <c r="N72" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O72" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P72" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q72" s="1"/>
+      <c r="R72" s="3"/>
+      <c r="S72" s="1"/>
+      <c r="T72" s="9"/>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>2</v>
       </c>
@@ -2597,16 +3109,24 @@
       <c r="D73">
         <v>54</v>
       </c>
-      <c r="N73" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="O73" s="10" t="str">
+      <c r="N73" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P73" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q73" s="1"/>
+      <c r="R73" s="3"/>
+      <c r="S73" s="1"/>
+      <c r="T73" s="9"/>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>2</v>
       </c>
@@ -2619,16 +3139,24 @@
       <c r="D74">
         <v>55</v>
       </c>
-      <c r="N74" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="O74" s="10" t="str">
+      <c r="N74" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P74" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q74" s="1"/>
+      <c r="R74" s="3"/>
+      <c r="S74" s="1"/>
+      <c r="T74" s="9"/>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>2</v>
       </c>
@@ -2650,20 +3178,44 @@
       <c r="K75" s="5"/>
       <c r="L75" s="5"/>
       <c r="M75" s="5"/>
-      <c r="N75" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="O75" s="19" t="str">
+      <c r="N75" s="17" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="O75" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P75" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q75" s="1"/>
+      <c r="R75" s="3"/>
+      <c r="S75" s="1"/>
+      <c r="T75" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A10:M10"/>
   </mergeCells>
-  <conditionalFormatting sqref="L12:L75">
+  <conditionalFormatting sqref="L41:L75">
+    <cfRule type="expression" dxfId="7" priority="5">
+      <formula>AND(L41&gt;0,(H41)/100&gt;=L41)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="6">
+      <formula>(H41)/100&lt;L41</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M41:M75">
+    <cfRule type="expression" dxfId="5" priority="9">
+      <formula>AND(M41&gt;0,N41&gt;=P41,L41&gt;0,(H41)/100&gt;=L41)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="10">
+      <formula>OR(N41&lt;P41,(H41)/100&lt;L41)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L12:L40">
     <cfRule type="expression" dxfId="3" priority="1">
       <formula>AND(L12&gt;0,(H12)/100&gt;=L12)</formula>
     </cfRule>
@@ -2671,12 +3223,12 @@
       <formula>(H12)/100&lt;L12</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M12:M75">
+  <conditionalFormatting sqref="M12:M40">
     <cfRule type="expression" dxfId="1" priority="3">
-      <formula>AND(M12&gt;0,N12&gt;=O12,L12&gt;0,(H12)/100&gt;=L12)</formula>
+      <formula>AND(M12&gt;0,N12&gt;=P12,L12&gt;0,(H12)/100&gt;=L12)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="4">
-      <formula>OR(N12&lt;O12,(H12)/100&lt;L12)</formula>
+      <formula>OR(N12&lt;P12,(H12)/100&lt;L12)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2694,495 +3246,495 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="A1" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="D2" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="30"/>
-      <c r="B3" s="25">
+      <c r="A3" s="23"/>
+      <c r="B3" s="18">
         <v>100</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="18">
         <v>1000</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="23"/>
+      <c r="B4" s="18">
+        <v>33.333333330000002</v>
+      </c>
+      <c r="C4" s="18">
+        <v>332.5</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="24">
+        <v>33.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="23"/>
+      <c r="B5" s="18">
+        <v>11.11111111</v>
+      </c>
+      <c r="C5" s="18">
+        <v>110</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="23"/>
+      <c r="B6" s="18">
+        <v>3.703703704</v>
+      </c>
+      <c r="C6" s="18">
+        <v>37.5</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="24">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="23"/>
+      <c r="B7" s="18">
+        <v>1.2345679009999999</v>
+      </c>
+      <c r="C7" s="18">
+        <v>12.5</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="24">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="23"/>
+      <c r="B8" s="18">
+        <v>0.411522634</v>
+      </c>
+      <c r="C8" s="18">
+        <v>5</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="24">
+        <v>1.25E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="23"/>
+      <c r="B9" s="18">
+        <v>0.13717421099999999</v>
+      </c>
+      <c r="C9" s="18">
+        <v>547.5</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="24">
+        <v>0.136875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="23"/>
+      <c r="B10" s="18">
+        <v>4.5724737000000001E-2</v>
+      </c>
+      <c r="C10" s="18">
+        <v>182.5</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="24">
+        <v>4.5624999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="23"/>
+      <c r="B11" s="18">
+        <v>1.5241579E-2</v>
+      </c>
+      <c r="C11" s="18">
+        <v>60</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="24">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="23"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="24"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="23"/>
+      <c r="B14" s="18">
+        <v>100</v>
+      </c>
+      <c r="C14" s="18">
+        <v>1000</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="23"/>
+      <c r="B15" s="18">
+        <v>25</v>
+      </c>
+      <c r="C15" s="18">
+        <v>250</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="23"/>
+      <c r="B16" s="18">
+        <v>6.25</v>
+      </c>
+      <c r="C16" s="18">
+        <v>62.5</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="24">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="23"/>
+      <c r="B17" s="18">
+        <v>1.5625</v>
+      </c>
+      <c r="C17" s="18">
+        <v>15</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="24">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="23"/>
+      <c r="B18" s="18">
+        <v>0.390625</v>
+      </c>
+      <c r="C18" s="18">
+        <v>5</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="24">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="23"/>
+      <c r="B19" s="18">
+        <v>9.765625E-2</v>
+      </c>
+      <c r="C19" s="18">
+        <v>390</v>
+      </c>
+      <c r="D19" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="31">
+      <c r="E19" s="24">
+        <v>9.7500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="23"/>
+      <c r="B20" s="18">
+        <v>2.4414063E-2</v>
+      </c>
+      <c r="C20" s="18">
+        <v>97.5</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="24">
+        <v>2.4375000000000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="23"/>
+      <c r="B21" s="18">
+        <v>6.1035159999999998E-3</v>
+      </c>
+      <c r="C21" s="18">
+        <v>25</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="24">
+        <v>6.2500000000000003E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="23"/>
+      <c r="B22" s="18">
+        <v>1.525879E-3</v>
+      </c>
+      <c r="C22" s="18">
+        <v>5</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="24">
+        <v>1.25E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="25"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="27"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="23"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="24"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="23"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="24"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="23"/>
+      <c r="B27" s="18">
+        <v>10</v>
+      </c>
+      <c r="C27" s="18">
+        <v>200</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="23"/>
+      <c r="B28" s="18">
+        <v>5</v>
+      </c>
+      <c r="C28" s="18">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="30"/>
-      <c r="B4" s="25">
-        <v>33.333333330000002</v>
-      </c>
-      <c r="C4" s="25">
-        <v>332.5</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="31">
-        <v>33.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="30"/>
-      <c r="B5" s="25">
-        <v>11.11111111</v>
-      </c>
-      <c r="C5" s="25">
-        <v>110</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="31">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="30"/>
-      <c r="B6" s="25">
-        <v>3.703703704</v>
-      </c>
-      <c r="C6" s="25">
-        <v>37.5</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="31">
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="30"/>
-      <c r="B7" s="25">
-        <v>1.2345679009999999</v>
-      </c>
-      <c r="C7" s="25">
+      <c r="D28" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="23"/>
+      <c r="B29" s="18">
+        <v>2.5</v>
+      </c>
+      <c r="C29" s="18">
+        <v>50</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="24">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="23"/>
+      <c r="B30" s="18">
+        <v>1.25</v>
+      </c>
+      <c r="C30" s="18">
+        <v>25</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="24">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="23"/>
+      <c r="B31" s="18">
+        <v>0.625</v>
+      </c>
+      <c r="C31" s="18">
         <v>12.5</v>
       </c>
-      <c r="D7" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="31">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="30"/>
-      <c r="B8" s="25">
-        <v>0.411522634</v>
-      </c>
-      <c r="C8" s="25">
-        <v>5</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="31">
-        <v>1.25E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="30"/>
-      <c r="B9" s="25">
-        <v>0.13717421099999999</v>
-      </c>
-      <c r="C9" s="25">
-        <v>547.5</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="31">
-        <v>0.136875</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="30"/>
-      <c r="B10" s="25">
-        <v>4.5724737000000001E-2</v>
-      </c>
-      <c r="C10" s="25">
-        <v>182.5</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="31">
-        <v>4.5624999999999999E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="30"/>
-      <c r="B11" s="25">
-        <v>1.5241579E-2</v>
-      </c>
-      <c r="C11" s="25">
-        <v>60</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="31">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="30"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="31"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="31" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="30"/>
-      <c r="B14" s="25">
-        <v>100</v>
-      </c>
-      <c r="C14" s="25">
-        <v>1000</v>
-      </c>
-      <c r="D14" s="25" t="s">
+      <c r="D31" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="24">
+        <v>1.5625000000000001E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="23"/>
+      <c r="B32" s="18">
+        <v>0.3125</v>
+      </c>
+      <c r="C32" s="18">
+        <v>7.5</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="24">
+        <v>9.3749999999999997E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="23"/>
+      <c r="B33" s="18">
+        <v>0.15625</v>
+      </c>
+      <c r="C33" s="18">
+        <v>2.5</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33" s="24">
+        <v>3.1250000000000001E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="23"/>
+      <c r="B34" s="18">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="C34" s="18">
+        <v>625</v>
+      </c>
+      <c r="D34" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="31">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="30"/>
-      <c r="B15" s="25">
-        <v>25</v>
-      </c>
-      <c r="C15" s="25">
-        <v>250</v>
-      </c>
-      <c r="D15" s="25" t="s">
+      <c r="E34" s="24">
+        <v>7.8125E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="25"/>
+      <c r="B35" s="26">
+        <v>3.90625E-2</v>
+      </c>
+      <c r="C35" s="26">
+        <v>312.5</v>
+      </c>
+      <c r="D35" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="31">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="30"/>
-      <c r="B16" s="25">
-        <v>6.25</v>
-      </c>
-      <c r="C16" s="25">
-        <v>62.5</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" s="31">
-        <v>6.25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="30"/>
-      <c r="B17" s="25">
-        <v>1.5625</v>
-      </c>
-      <c r="C17" s="25">
-        <v>15</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="31">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="30"/>
-      <c r="B18" s="25">
-        <v>0.390625</v>
-      </c>
-      <c r="C18" s="25">
-        <v>5</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" s="31">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="30"/>
-      <c r="B19" s="25">
-        <v>9.765625E-2</v>
-      </c>
-      <c r="C19" s="25">
-        <v>390</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" s="31">
-        <v>9.7500000000000003E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="30"/>
-      <c r="B20" s="25">
-        <v>2.4414063E-2</v>
-      </c>
-      <c r="C20" s="25">
-        <v>97.5</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="31">
-        <v>2.4375000000000001E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="30"/>
-      <c r="B21" s="25">
-        <v>6.1035159999999998E-3</v>
-      </c>
-      <c r="C21" s="25">
-        <v>25</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" s="31">
-        <v>6.2500000000000003E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="30"/>
-      <c r="B22" s="25">
-        <v>1.525879E-3</v>
-      </c>
-      <c r="C22" s="25">
-        <v>5</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="E22" s="31">
-        <v>1.25E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="32"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="34"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="30"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="31"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="30"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="31"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="E26" s="31" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="30"/>
-      <c r="B27" s="25">
-        <v>10</v>
-      </c>
-      <c r="C27" s="25">
-        <v>200</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" s="31">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="30"/>
-      <c r="B28" s="25">
-        <v>5</v>
-      </c>
-      <c r="C28" s="25">
-        <v>100</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" s="31">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="30"/>
-      <c r="B29" s="25">
-        <v>2.5</v>
-      </c>
-      <c r="C29" s="25">
-        <v>50</v>
-      </c>
-      <c r="D29" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="E29" s="31">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="30"/>
-      <c r="B30" s="25">
-        <v>1.25</v>
-      </c>
-      <c r="C30" s="25">
-        <v>25</v>
-      </c>
-      <c r="D30" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="E30" s="31">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="30"/>
-      <c r="B31" s="25">
-        <v>0.625</v>
-      </c>
-      <c r="C31" s="25">
-        <v>12.5</v>
-      </c>
-      <c r="D31" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="E31" s="31">
-        <v>1.5625000000000001E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="30"/>
-      <c r="B32" s="25">
-        <v>0.3125</v>
-      </c>
-      <c r="C32" s="25">
-        <v>7.5</v>
-      </c>
-      <c r="D32" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="E32" s="31">
-        <v>9.3749999999999997E-4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="30"/>
-      <c r="B33" s="25">
-        <v>0.15625</v>
-      </c>
-      <c r="C33" s="25">
-        <v>2.5</v>
-      </c>
-      <c r="D33" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="E33" s="31">
-        <v>3.1250000000000001E-4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="30"/>
-      <c r="B34" s="25">
-        <v>7.8125E-2</v>
-      </c>
-      <c r="C34" s="25">
-        <v>625</v>
-      </c>
-      <c r="D34" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="E34" s="31">
-        <v>7.8125E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="32"/>
-      <c r="B35" s="33">
-        <v>3.90625E-2</v>
-      </c>
-      <c r="C35" s="33">
-        <v>312.5</v>
-      </c>
-      <c r="D35" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="E35" s="34">
+      <c r="E35" s="27">
         <v>3.90625E-2</v>
       </c>
     </row>
